--- a/Paper Summaries analysis.xlsx
+++ b/Paper Summaries analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uao365-my.sharepoint.com/personal/a1825952_adelaide_edu_au/Documents/literature review on secure programming paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="8_{F564BF6A-A574-4629-9A09-37F9169109BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DD5AE4F-4D11-45D9-9D1A-D3CE660195EF}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{F564BF6A-A574-4629-9A09-37F9169109BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E158DA-2CB5-472E-921B-7B65A2DD6BA3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" xr2:uid="{7E2C8EBA-5825-43EE-94C9-BA18B9712E2B}"/>
   </bookViews>
@@ -585,7 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,13 +641,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,7 +674,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC3F101-3E75-4066-9BE2-74BABCCE9E24}">
   <dimension ref="A1:BA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1336,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1344,7 +1350,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1358,7 +1364,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1369,7 +1375,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1395,7 +1401,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1409,7 +1415,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1423,7 +1429,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1437,7 +1443,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1448,9 +1454,59 @@
       <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1476,7 +1532,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1490,7 +1546,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1504,7 +1560,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1521,9 +1577,59 @@
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1546,7 +1652,7 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1560,7 +1666,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1574,7 +1680,7 @@
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1597,7 +1703,7 @@
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1614,7 +1720,7 @@
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1634,71 +1740,171 @@
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="22"/>
+      <c r="AZ26" s="22"/>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1718,7 +1924,7 @@
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1729,7 +1935,7 @@
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1743,7 +1949,7 @@
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1757,7 +1963,7 @@
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1770,21 +1976,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
+      <c r="AQ33" s="24"/>
+      <c r="AR33" s="24"/>
+      <c r="AS33" s="24"/>
+      <c r="AT33" s="24"/>
+      <c r="AU33" s="24"/>
+      <c r="AV33" s="24"/>
+      <c r="AW33" s="24"/>
+      <c r="AX33" s="24"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="24"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1800,8 +2056,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1811,8 +2067,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1825,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="str">
         <f>C1</f>
         <v>Data Security</v>
@@ -1859,97 +2115,97 @@
         <v>Societal Security</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>9</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <f>(SUM(C28:J32) + SUM(C34:J37))/C43</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <f>(SUM(K28:Q32)+SUM(K34:Q37))/C43</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <f>(SUM(R28:U32)+SUM(R34:U37))/C43</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <f>(SUM(V28:AB32)+SUM(V34:AB37))/C43</f>
         <v>0</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <f>(SUM(AC28:AG32)+SUM(AC34:AG37))/C43</f>
         <v>0</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <f>(SUM(AH28:AM32)+SUM(AH34:AM37))/C43</f>
         <v>0</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="12">
         <f>(SUM(AN28:AU32)+SUM(AN34:AU37 ))/C43</f>
         <v>0</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="12">
         <f>(SUM(AV28:AZ32)+SUM(AV34:AZ37))/C43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="1">
         <v>17</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <f>SUM(C3:J24)/C44</f>
         <v>1.0588235294117647</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <f>SUM(K3:Q24)/C44</f>
         <v>1.1176470588235294</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <f>SUM(R3:U24)/C44</f>
         <v>0</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <f>SUM(V3:AB24)/C44</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <f>SUM(V3:AB24)/C44</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <f>SUM(AH3:AM24)/C44</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="12">
         <f>SUM(AN3:AU24)/C44</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="12">
         <f>-SUM(AV3:BA24)/C44</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1972,16 +2228,16 @@
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2292,7 +2548,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="C12:AZ12"/>
+    <mergeCell ref="C17:AZ17"/>
+    <mergeCell ref="C27:AZ27"/>
+    <mergeCell ref="C26:AZ26"/>
     <mergeCell ref="AN1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="C1:J1"/>
@@ -2303,7 +2563,7 @@
     <mergeCell ref="AH1:AM1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:AZ37">
+  <conditionalFormatting sqref="C3:AZ11 C13:AZ16 C12 C18:AZ25 C17 C28:AZ37 C26:C27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/Paper Summaries analysis.xlsx
+++ b/Paper Summaries analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uao365-my.sharepoint.com/personal/a1825952_adelaide_edu_au/Documents/literature review on secure programming paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{F564BF6A-A574-4629-9A09-37F9169109BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E158DA-2CB5-472E-921B-7B65A2DD6BA3}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="8_{F564BF6A-A574-4629-9A09-37F9169109BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{659A430A-53A8-482A-81EA-76536EDCA334}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="607" xr2:uid="{7E2C8EBA-5825-43EE-94C9-BA18B9712E2B}"/>
   </bookViews>
@@ -650,6 +650,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,15 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:BA73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="AL38" sqref="AL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1111,72 +1111,72 @@
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="18" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="14" t="s">
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="15" t="s">
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
@@ -1454,56 +1454,56 @@
       <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-      <c r="AX12" s="22"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="22"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1577,56 +1577,56 @@
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
-      <c r="AP17" s="22"/>
-      <c r="AQ17" s="22"/>
-      <c r="AR17" s="22"/>
-      <c r="AS17" s="22"/>
-      <c r="AT17" s="22"/>
-      <c r="AU17" s="22"/>
-      <c r="AV17" s="22"/>
-      <c r="AW17" s="22"/>
-      <c r="AX17" s="22"/>
-      <c r="AY17" s="22"/>
-      <c r="AZ17" s="22"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -1740,168 +1740,168 @@
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="22"/>
-      <c r="AS26" s="22"/>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="22"/>
-      <c r="AZ26" s="22"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
-      <c r="AR27" s="22"/>
-      <c r="AS27" s="22"/>
-      <c r="AT27" s="22"/>
-      <c r="AU27" s="22"/>
-      <c r="AV27" s="22"/>
-      <c r="AW27" s="22"/>
-      <c r="AX27" s="22"/>
-      <c r="AY27" s="22"/>
-      <c r="AZ27" s="22"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="16"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="16"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -1922,6 +1922,9 @@
       <c r="S28" s="1">
         <v>1</v>
       </c>
+      <c r="AK28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
@@ -1980,56 +1983,56 @@
       <c r="B33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="24"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-      <c r="AP33" s="24"/>
-      <c r="AQ33" s="24"/>
-      <c r="AR33" s="24"/>
-      <c r="AS33" s="24"/>
-      <c r="AT33" s="24"/>
-      <c r="AU33" s="24"/>
-      <c r="AV33" s="24"/>
-      <c r="AW33" s="24"/>
-      <c r="AX33" s="24"/>
-      <c r="AY33" s="24"/>
-      <c r="AZ33" s="24"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -2144,7 +2147,7 @@
       </c>
       <c r="I43" s="12">
         <f>(SUM(AH28:AM32)+SUM(AH34:AM37))/C43</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J43" s="12">
         <f>(SUM(AN28:AU32)+SUM(AN34:AU37 ))/C43</f>
@@ -2563,7 +2566,7 @@
     <mergeCell ref="AH1:AM1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:AZ11 C13:AZ16 C12 C18:AZ25 C17 C28:AZ37 C26:C27">
+  <conditionalFormatting sqref="C3:AZ11 C12 C13:AZ16 C17 C18:AZ25 C26:C27 C31:AZ37 C29:AJ30 AL29:AZ30 C28:AZ28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
